--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-48/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-48/curvature_data.xlsx
@@ -379,58 +379,58 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>57001.231189</v>
+        <v>56898.967185</v>
       </c>
       <c r="B2">
-        <v>-5.5720426976e-05</v>
+        <v>-7.402089929e-06</v>
       </c>
       <c r="C2">
-        <v>-0.00022620906777</v>
+        <v>-1.1925646062e-05</v>
       </c>
       <c r="D2">
-        <v>-0.00014607513843</v>
+        <v>-2.5329835517e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>56960.367188</v>
+        <v>56916.699185</v>
       </c>
       <c r="B3">
-        <v>-0.0002014021</v>
+        <v>-4.7993912143e-05</v>
       </c>
       <c r="C3">
-        <v>-0.0006097965</v>
+        <v>-0.00010193708406</v>
       </c>
       <c r="D3">
-        <v>-0.0003018801</v>
+        <v>-9.9468749202e-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>56938.567186</v>
+        <v>56927.699186</v>
       </c>
       <c r="B4">
-        <v>-7.5421499197e-05</v>
+        <v>-5.6037888207e-05</v>
       </c>
       <c r="C4">
-        <v>-0.00036139814919</v>
+        <v>-0.00023315827516</v>
       </c>
       <c r="D4">
-        <v>-0.00019064895824</v>
+        <v>-0.00014170938367</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>56916.699185</v>
+        <v>56938.567186</v>
       </c>
       <c r="B5">
-        <v>-4.7993912143e-05</v>
+        <v>-7.5421499197e-05</v>
       </c>
       <c r="C5">
-        <v>-0.00010193708406</v>
+        <v>-0.00036139814919</v>
       </c>
       <c r="D5">
-        <v>-9.9468749202e-05</v>
+        <v>-0.00019064895824</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -449,30 +449,30 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>56978.167188</v>
+        <v>56960.367188</v>
       </c>
       <c r="B7">
-        <v>-0.0001424692</v>
+        <v>-0.0002014021</v>
       </c>
       <c r="C7">
-        <v>-0.0004881551</v>
+        <v>-0.0006097965</v>
       </c>
       <c r="D7">
-        <v>-0.0002451157</v>
+        <v>-0.0003018801</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>57021.63119</v>
+        <v>56978.167188</v>
       </c>
       <c r="B8">
-        <v>-7.2268442087e-06</v>
+        <v>-0.0001424692</v>
       </c>
       <c r="C8">
-        <v>-1.1698795606e-05</v>
+        <v>-0.0004881551</v>
       </c>
       <c r="D8">
-        <v>-2.495058565e-05</v>
+        <v>-0.0002451157</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -491,44 +491,44 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>57011.56719</v>
+        <v>57001.231189</v>
       </c>
       <c r="B10">
-        <v>-2.4025626554e-05</v>
+        <v>-5.5720426976e-05</v>
       </c>
       <c r="C10">
-        <v>-7.608194195399999e-05</v>
+        <v>-0.00022620906777</v>
       </c>
       <c r="D10">
-        <v>-0.00010670966426</v>
+        <v>-0.00014607513843</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>56927.699186</v>
+        <v>57011.56719</v>
       </c>
       <c r="B11">
-        <v>-5.6037888207e-05</v>
+        <v>-2.4025626554e-05</v>
       </c>
       <c r="C11">
-        <v>-0.00023315827516</v>
+        <v>-7.608194195399999e-05</v>
       </c>
       <c r="D11">
-        <v>-0.00014170938367</v>
+        <v>-0.00010670966426</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>56898.967185</v>
+        <v>57021.63119</v>
       </c>
       <c r="B12">
-        <v>-7.402089929e-06</v>
+        <v>-7.2268442087e-06</v>
       </c>
       <c r="C12">
-        <v>-1.1925646062e-05</v>
+        <v>-1.1698795606e-05</v>
       </c>
       <c r="D12">
-        <v>-2.5329835517e-05</v>
+        <v>-2.495058565e-05</v>
       </c>
     </row>
   </sheetData>
